--- a/Dental_care/data/input/Dental_HIT.xlsx
+++ b/Dental_care/data/input/Dental_HIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\BKU\ClementLefevre\workspace\Health_Politics_Design\Dental_care\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB334B-C16F-4DBC-A52A-A10D696043A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEBFD18-9F2F-4C2C-B7A5-2B749826DF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="5595" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{AC534581-A4E6-4BFA-AA1C-3295683E7F53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="6" xr2:uid="{AC534581-A4E6-4BFA-AA1C-3295683E7F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
     <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tabelle6" sheetId="6" r:id="rId6"/>
+    <sheet name="Tabelle7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -158,11 +160,353 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{BD09BDCD-0029-4CC1-B19E-2CB7DED6181F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{758A6AD3-B014-4C37-B997-69E79F6C1E86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{9E4D0DA9-8CC1-49EB-A6A3-1C871B451DF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{AF801167-9E08-42D3-A2F6-69987E2ED0C4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{E8B1EE5C-607A-4453-9519-BA52A04BC246}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{D6344DF9-15AC-480F-B0ED-2942B634F907}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{519372F5-B9E8-422A-BC9F-C0AD1DDA7FF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">P: Provisional value </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{AC0EB541-73EE-4C2D-B162-FB618036E888}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{F447214E-7A0F-41A3-A6F4-3FE901A93242}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{67C5E9F9-2C63-44AD-B26D-227113849658}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{397C23F8-0C88-4C92-B369-916F524C4258}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{0647E913-5DE3-420B-8978-7201D158479F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{5E51F0F7-86AC-4F5E-91FF-2CC3B29A2C9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{7117B3DB-B4C7-4791-829B-A469F68426DA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{F7F46770-D6CA-465F-81CD-1BAD869EE5B8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{DCC22355-7042-4CDE-911C-3C243C4AB209}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D: Difference in methodology </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{5D6D392B-940F-494D-A836-4C29B3AF0117}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D: Difference in methodology </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{87FEA77A-BFF3-4921-8DB6-A8AA693BECF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">D: Difference in methodology </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{1252378D-43E2-4237-82E9-0AAA4F722803}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{FEE8B8E8-B734-4408-A7AE-283601A056B4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{C6021997-5B58-4817-AEAC-C56C84D34035}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{9317B23F-27EA-48FA-9664-C9A523BB1B54}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">P: Provisional value </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{3CA9DC88-3DC7-459E-877A-4CB7886EDC8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0" xr:uid="{88D40C28-A355-4A32-9D8C-0D87D7A8CDEC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{9E590A15-D789-4B7A-86B5-EC1BE032731D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">B: Break </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
-  <si>
-    <t>Dental expenditure AS % OF TOTAL HEALTH EXPENDITURE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="52">
   <si>
     <t>Country</t>
   </si>
@@ -272,13 +616,7 @@
     <t>Public as % of total dental care expenditure</t>
   </si>
   <si>
-    <t>Dataset: Health expenditure and financing</t>
-  </si>
-  <si>
     <t>Private as % of total</t>
-  </si>
-  <si>
-    <t>Self-reported unmet needs for dental examination by sex, age, main reason declared and income quintile [hlth_silc_09]</t>
   </si>
   <si>
     <t>Bulgaria</t>
@@ -310,6 +648,21 @@
   <si>
     <t>Slovakia</t>
   </si>
+  <si>
+    <t>Dental expenditure as % of THE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private per capita dental expenditure </t>
+  </si>
+  <si>
+    <t>Self-reported unmet needs for dental care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public per capita dental expenditure </t>
+  </si>
+  <si>
+    <t>Dataset: Health expenditure and financing</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +673,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="#,##0.##########"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +756,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -436,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -470,13 +829,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,9 +872,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -524,6 +900,32 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -843,59 +1245,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87351215-2C45-45AE-913C-941DB745576A}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="M1:N1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5">
         <v>6.1235520253250755E-2</v>
@@ -935,7 +1335,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
         <v>2.5737851954173881E-2</v>
@@ -975,7 +1375,7 @@
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>6.1965937385658421E-2</v>
@@ -1015,7 +1415,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>4.4139209314009796E-2</v>
@@ -1055,7 +1455,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>8.2689304882797535E-2</v>
@@ -1095,7 +1495,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>5.4351488620511597E-2</v>
@@ -1135,7 +1535,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5">
         <v>4.623559975646583E-2</v>
@@ -1175,7 +1575,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>7.6731149953350536E-2</v>
@@ -1215,7 +1615,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5">
         <v>9.7619291478754006E-2</v>
@@ -1255,7 +1655,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>3.7155473729275156E-2</v>
@@ -1295,7 +1695,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
         <v>5.8961047424068817E-2</v>
@@ -1335,7 +1735,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5">
         <v>6.2777146844218784E-2</v>
@@ -1375,7 +1775,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5">
         <v>4.4948401617026533E-2</v>
@@ -1415,7 +1815,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>4.5269182443668995E-2</v>
@@ -1455,7 +1855,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5">
         <v>3.6442905976932581E-2</v>
@@ -1495,7 +1895,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="5">
         <v>5.3034593954093649E-2</v>
@@ -1535,7 +1935,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5">
         <v>6.1957165335784638E-2</v>
@@ -1575,7 +1975,7 @@
     </row>
     <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5">
         <v>4.2358946758202745E-2</v>
@@ -1615,7 +2015,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5">
         <v>5.7367980305858102E-2</v>
@@ -1655,7 +2055,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
         <v>5.5038616071846291E-2</v>
@@ -1695,7 +2095,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5">
         <v>7.8473725475954006E-2</v>
@@ -1735,7 +2135,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1802,59 +2202,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF014981-DF09-4A40-B5EE-B95AFF0E66CE}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>0.46330118283424027</v>
@@ -1894,7 +2292,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6">
         <v>0.51492952825965921</v>
@@ -1934,7 +2332,7 @@
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>0.53646423512747876</v>
@@ -1974,7 +2372,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>0.19132807580437194</v>
@@ -2014,7 +2412,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>0.3014988812223231</v>
@@ -2054,7 +2452,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>0.4681402577366367</v>
@@ -2094,7 +2492,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>0.57843176021669074</v>
@@ -2134,7 +2532,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6">
         <v>7.1483199526519879E-3</v>
@@ -2174,7 +2572,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6">
         <v>0.35138302859821846</v>
@@ -2214,7 +2612,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6">
         <v>0.17405019571724614</v>
@@ -2254,7 +2652,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6">
         <v>0.38859460354245989</v>
@@ -2294,7 +2692,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>0.15980345348929736</v>
@@ -2334,7 +2732,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6">
         <v>0.60209792485215274</v>
@@ -2374,7 +2772,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6">
         <v>0.10410438641021302</v>
@@ -2414,7 +2812,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6">
         <v>0.25946977452722791</v>
@@ -2454,7 +2852,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="6">
         <v>0.34335647720372769</v>
@@ -2494,7 +2892,7 @@
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6">
         <v>0.58361087011278723</v>
@@ -2534,7 +2932,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <v>0.48668108190129361</v>
@@ -2574,7 +2972,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6">
         <v>1.4022155277348982E-2</v>
@@ -2614,7 +3012,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6">
         <v>0.40409499247957542</v>
@@ -2654,7 +3052,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2721,879 +3119,878 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14">
+        <v>131.767</v>
+      </c>
+      <c r="C3" s="14">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="D3" s="14">
+        <v>137.846</v>
+      </c>
+      <c r="E3" s="14">
+        <v>141.06</v>
+      </c>
+      <c r="F3" s="14">
+        <v>148.858</v>
+      </c>
+      <c r="G3" s="14">
+        <v>155.80600000000001</v>
+      </c>
+      <c r="H3" s="14">
+        <v>159.28700000000001</v>
+      </c>
+      <c r="I3" s="14">
+        <v>157.244</v>
+      </c>
+      <c r="J3" s="14">
+        <v>164.26</v>
+      </c>
+      <c r="K3" s="14">
+        <v>166.31100000000001</v>
+      </c>
+      <c r="L3" s="14">
+        <v>170.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15">
-        <v>131.767</v>
-      </c>
-      <c r="C3" s="15">
-        <v>134.69999999999999</v>
-      </c>
-      <c r="D3" s="15">
-        <v>137.846</v>
-      </c>
-      <c r="E3" s="15">
-        <v>141.06</v>
-      </c>
-      <c r="F3" s="15">
-        <v>148.858</v>
-      </c>
-      <c r="G3" s="15">
-        <v>155.80600000000001</v>
-      </c>
-      <c r="H3" s="15">
-        <v>159.28700000000001</v>
-      </c>
-      <c r="I3" s="15">
-        <v>157.244</v>
-      </c>
-      <c r="J3" s="15">
-        <v>164.26</v>
-      </c>
-      <c r="K3" s="15">
-        <v>166.31100000000001</v>
-      </c>
-      <c r="L3" s="15">
-        <v>170.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="15">
+        <v>44.430999999999997</v>
+      </c>
+      <c r="C4" s="15">
+        <v>50.534999999999997</v>
+      </c>
+      <c r="D4" s="15">
+        <v>60.052</v>
+      </c>
+      <c r="E4" s="15">
+        <v>64.069000000000003</v>
+      </c>
+      <c r="F4" s="15">
+        <v>66.42</v>
+      </c>
+      <c r="G4" s="15">
+        <v>70.745000000000005</v>
+      </c>
+      <c r="H4" s="15">
+        <v>75.426000000000002</v>
+      </c>
+      <c r="I4" s="15">
+        <v>90.016999999999996</v>
+      </c>
+      <c r="J4" s="15">
+        <v>95.475999999999999</v>
+      </c>
+      <c r="K4" s="15">
+        <v>103.178</v>
+      </c>
+      <c r="L4" s="15">
+        <v>105.16800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="16">
-        <v>44.430999999999997</v>
-      </c>
-      <c r="C4" s="16">
-        <v>50.534999999999997</v>
-      </c>
-      <c r="D4" s="16">
-        <v>60.052</v>
-      </c>
-      <c r="E4" s="16">
-        <v>64.069000000000003</v>
-      </c>
-      <c r="F4" s="16">
-        <v>66.42</v>
-      </c>
-      <c r="G4" s="16">
-        <v>70.745000000000005</v>
-      </c>
-      <c r="H4" s="16">
-        <v>75.426000000000002</v>
-      </c>
-      <c r="I4" s="16">
-        <v>90.016999999999996</v>
-      </c>
-      <c r="J4" s="16">
-        <v>95.475999999999999</v>
-      </c>
-      <c r="K4" s="16">
-        <v>103.178</v>
-      </c>
-      <c r="L4" s="16">
-        <v>105.16800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="14">
+        <v>52.360999999999997</v>
+      </c>
+      <c r="C5" s="14">
+        <v>68.376999999999995</v>
+      </c>
+      <c r="D5" s="14">
+        <v>50.35</v>
+      </c>
+      <c r="E5" s="14">
+        <v>53.506999999999998</v>
+      </c>
+      <c r="F5" s="14">
+        <v>50.146999999999998</v>
+      </c>
+      <c r="G5" s="14">
+        <v>56.344000000000001</v>
+      </c>
+      <c r="H5" s="14">
+        <v>65.533000000000001</v>
+      </c>
+      <c r="I5" s="14">
+        <v>70.631</v>
+      </c>
+      <c r="J5" s="14">
+        <v>75.506</v>
+      </c>
+      <c r="K5" s="14">
+        <v>81.266000000000005</v>
+      </c>
+      <c r="L5" s="14">
+        <v>86.832999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15">
-        <v>52.360999999999997</v>
-      </c>
-      <c r="C5" s="15">
-        <v>68.376999999999995</v>
-      </c>
-      <c r="D5" s="15">
-        <v>50.35</v>
-      </c>
-      <c r="E5" s="15">
-        <v>53.506999999999998</v>
-      </c>
-      <c r="F5" s="15">
-        <v>50.146999999999998</v>
-      </c>
-      <c r="G5" s="15">
-        <v>56.344000000000001</v>
-      </c>
-      <c r="H5" s="15">
-        <v>65.533000000000001</v>
-      </c>
-      <c r="I5" s="15">
-        <v>70.631</v>
-      </c>
-      <c r="J5" s="15">
-        <v>75.506</v>
-      </c>
-      <c r="K5" s="15">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="L5" s="15">
-        <v>86.832999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="15">
+        <v>134.84299999999999</v>
+      </c>
+      <c r="C6" s="15">
+        <v>140.77199999999999</v>
+      </c>
+      <c r="D6" s="15">
+        <v>152.02600000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="F6" s="15">
+        <v>165.50800000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>164.285</v>
+      </c>
+      <c r="H6" s="15">
+        <v>164.53800000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>164.779</v>
+      </c>
+      <c r="J6" s="15">
+        <v>172.886</v>
+      </c>
+      <c r="K6" s="15">
+        <v>184.45699999999999</v>
+      </c>
+      <c r="L6" s="15">
+        <v>192.08600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="16">
-        <v>134.84299999999999</v>
-      </c>
-      <c r="C6" s="16">
-        <v>140.77199999999999</v>
-      </c>
-      <c r="D6" s="16">
-        <v>152.02600000000001</v>
-      </c>
-      <c r="E6" s="16">
-        <v>160.61000000000001</v>
-      </c>
-      <c r="F6" s="16">
-        <v>165.50800000000001</v>
-      </c>
-      <c r="G6" s="16">
-        <v>164.285</v>
-      </c>
-      <c r="H6" s="16">
-        <v>164.53800000000001</v>
-      </c>
-      <c r="I6" s="16">
-        <v>164.779</v>
-      </c>
-      <c r="J6" s="16">
-        <v>172.886</v>
-      </c>
-      <c r="K6" s="16">
-        <v>184.45699999999999</v>
-      </c>
-      <c r="L6" s="16">
-        <v>192.08600000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="14">
+        <v>74.608999999999995</v>
+      </c>
+      <c r="C7" s="14">
+        <v>65.281999999999996</v>
+      </c>
+      <c r="D7" s="14">
+        <v>69.727999999999994</v>
+      </c>
+      <c r="E7" s="14">
+        <v>77.966999999999999</v>
+      </c>
+      <c r="F7" s="14">
+        <v>84.120999999999995</v>
+      </c>
+      <c r="G7" s="14">
+        <v>101.98</v>
+      </c>
+      <c r="H7" s="14">
+        <v>109.40300000000001</v>
+      </c>
+      <c r="I7" s="14">
+        <v>122.658</v>
+      </c>
+      <c r="J7" s="14">
+        <v>130.81399999999999</v>
+      </c>
+      <c r="K7" s="14">
+        <v>158.268</v>
+      </c>
+      <c r="L7" s="14">
+        <v>162.26599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15">
-        <v>74.608999999999995</v>
-      </c>
-      <c r="C7" s="15">
-        <v>65.281999999999996</v>
-      </c>
-      <c r="D7" s="15">
-        <v>69.727999999999994</v>
-      </c>
-      <c r="E7" s="15">
-        <v>77.966999999999999</v>
-      </c>
-      <c r="F7" s="15">
-        <v>84.120999999999995</v>
-      </c>
-      <c r="G7" s="15">
-        <v>101.98</v>
-      </c>
-      <c r="H7" s="15">
-        <v>109.40300000000001</v>
-      </c>
-      <c r="I7" s="15">
-        <v>122.658</v>
-      </c>
-      <c r="J7" s="15">
-        <v>130.81399999999999</v>
-      </c>
-      <c r="K7" s="15">
-        <v>158.268</v>
-      </c>
-      <c r="L7" s="15">
-        <v>162.26599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>93.768000000000001</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>95.522000000000006</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>106.32</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>112.631</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>113.925</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>122.10599999999999</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>124.40900000000001</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>140.27500000000001</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>143.595</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>151.19399999999999</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>140.47999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="14">
+        <v>127.935</v>
+      </c>
+      <c r="C9" s="14">
+        <v>95.314999999999998</v>
+      </c>
+      <c r="D9" s="14">
+        <v>104.102</v>
+      </c>
+      <c r="E9" s="14">
+        <v>110.343</v>
+      </c>
+      <c r="F9" s="14">
+        <v>116.91800000000001</v>
+      </c>
+      <c r="G9" s="14">
+        <v>114.501</v>
+      </c>
+      <c r="H9" s="14">
+        <v>118.803</v>
+      </c>
+      <c r="I9" s="14">
+        <v>120.849</v>
+      </c>
+      <c r="J9" s="14">
+        <v>126.26900000000001</v>
+      </c>
+      <c r="K9" s="14">
+        <v>130.636</v>
+      </c>
+      <c r="L9" s="14">
+        <v>134.83099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="15">
-        <v>127.935</v>
-      </c>
-      <c r="C9" s="15">
-        <v>95.314999999999998</v>
-      </c>
-      <c r="D9" s="15">
-        <v>104.102</v>
-      </c>
-      <c r="E9" s="15">
-        <v>110.343</v>
-      </c>
-      <c r="F9" s="15">
-        <v>116.91800000000001</v>
-      </c>
-      <c r="G9" s="15">
-        <v>114.501</v>
-      </c>
-      <c r="H9" s="15">
-        <v>118.803</v>
-      </c>
-      <c r="I9" s="15">
-        <v>120.849</v>
-      </c>
-      <c r="J9" s="15">
-        <v>126.26900000000001</v>
-      </c>
-      <c r="K9" s="15">
-        <v>130.636</v>
-      </c>
-      <c r="L9" s="15">
-        <v>134.83099999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="B10" s="15">
+        <v>258.33999999999997</v>
+      </c>
+      <c r="C10" s="15">
+        <v>239.74199999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>200.041</v>
+      </c>
+      <c r="E10" s="15">
+        <v>181.048</v>
+      </c>
+      <c r="F10" s="15">
+        <v>126.18</v>
+      </c>
+      <c r="G10" s="15">
+        <v>116.069</v>
+      </c>
+      <c r="H10" s="15">
+        <v>115.32899999999999</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>101.01300000000001</v>
+      </c>
+      <c r="K10" s="15">
+        <v>108.985</v>
+      </c>
+      <c r="L10" s="15">
+        <v>108.84099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="16">
-        <v>258.33999999999997</v>
-      </c>
-      <c r="C10" s="16">
-        <v>239.74199999999999</v>
-      </c>
-      <c r="D10" s="16">
-        <v>200.041</v>
-      </c>
-      <c r="E10" s="16">
-        <v>181.048</v>
-      </c>
-      <c r="F10" s="16">
-        <v>126.18</v>
-      </c>
-      <c r="G10" s="16">
-        <v>116.069</v>
-      </c>
-      <c r="H10" s="16">
-        <v>115.32899999999999</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
-        <v>101.01300000000001</v>
-      </c>
-      <c r="K10" s="16">
-        <v>108.985</v>
-      </c>
-      <c r="L10" s="16">
-        <v>108.84099999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="B11" s="14">
+        <v>35.972000000000001</v>
+      </c>
+      <c r="C11" s="14">
+        <v>35.734000000000002</v>
+      </c>
+      <c r="D11" s="14">
+        <v>36.048999999999999</v>
+      </c>
+      <c r="E11" s="14">
+        <v>39.143999999999998</v>
+      </c>
+      <c r="F11" s="14">
+        <v>42.887</v>
+      </c>
+      <c r="G11" s="14">
+        <v>44.893000000000001</v>
+      </c>
+      <c r="H11" s="14">
+        <v>48.493000000000002</v>
+      </c>
+      <c r="I11" s="14">
+        <v>47.264000000000003</v>
+      </c>
+      <c r="J11" s="14">
+        <v>56.283000000000001</v>
+      </c>
+      <c r="K11" s="14">
+        <v>54.496000000000002</v>
+      </c>
+      <c r="L11" s="14">
+        <v>57.418999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15">
-        <v>35.972000000000001</v>
-      </c>
-      <c r="C11" s="15">
-        <v>35.734000000000002</v>
-      </c>
-      <c r="D11" s="15">
-        <v>36.048999999999999</v>
-      </c>
-      <c r="E11" s="15">
-        <v>39.143999999999998</v>
-      </c>
-      <c r="F11" s="15">
-        <v>42.887</v>
-      </c>
-      <c r="G11" s="15">
-        <v>44.893000000000001</v>
-      </c>
-      <c r="H11" s="15">
-        <v>48.493000000000002</v>
-      </c>
-      <c r="I11" s="15">
-        <v>47.264000000000003</v>
-      </c>
-      <c r="J11" s="15">
-        <v>56.283000000000001</v>
-      </c>
-      <c r="K11" s="15">
-        <v>54.496000000000002</v>
-      </c>
-      <c r="L11" s="15">
-        <v>57.418999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="15">
+        <v>179.35499999999999</v>
+      </c>
+      <c r="C12" s="15">
+        <v>172.89699999999999</v>
+      </c>
+      <c r="D12" s="15">
+        <v>173.542</v>
+      </c>
+      <c r="E12" s="15">
+        <v>178.31200000000001</v>
+      </c>
+      <c r="F12" s="15">
+        <v>185.77799999999999</v>
+      </c>
+      <c r="G12" s="15">
+        <v>192.02099999999999</v>
+      </c>
+      <c r="H12" s="15">
+        <v>194.33500000000001</v>
+      </c>
+      <c r="I12" s="15">
+        <v>196.98099999999999</v>
+      </c>
+      <c r="J12" s="15">
+        <v>204.357</v>
+      </c>
+      <c r="K12" s="15">
+        <v>214.196</v>
+      </c>
+      <c r="L12" s="15">
+        <v>222.292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="16">
-        <v>179.35499999999999</v>
-      </c>
-      <c r="C12" s="16">
-        <v>172.89699999999999</v>
-      </c>
-      <c r="D12" s="16">
-        <v>173.542</v>
-      </c>
-      <c r="E12" s="16">
-        <v>178.31200000000001</v>
-      </c>
-      <c r="F12" s="16">
-        <v>185.77799999999999</v>
-      </c>
-      <c r="G12" s="16">
-        <v>192.02099999999999</v>
-      </c>
-      <c r="H12" s="16">
-        <v>194.33500000000001</v>
-      </c>
-      <c r="I12" s="16">
-        <v>196.98099999999999</v>
-      </c>
-      <c r="J12" s="16">
-        <v>204.357</v>
-      </c>
-      <c r="K12" s="16">
-        <v>214.196</v>
-      </c>
-      <c r="L12" s="16">
-        <v>222.292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="14">
+        <v>51.709000000000003</v>
+      </c>
+      <c r="C13" s="14">
+        <v>45.472999999999999</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45.988</v>
+      </c>
+      <c r="E13" s="14">
+        <v>56.88</v>
+      </c>
+      <c r="F13" s="14">
+        <v>64.92</v>
+      </c>
+      <c r="G13" s="14">
+        <v>92.831000000000003</v>
+      </c>
+      <c r="H13" s="14">
+        <v>97.372</v>
+      </c>
+      <c r="I13" s="14">
+        <v>115.446</v>
+      </c>
+      <c r="J13" s="14">
+        <v>136.804</v>
+      </c>
+      <c r="K13" s="14">
+        <v>161.25</v>
+      </c>
+      <c r="L13" s="14">
+        <v>184.655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="15">
-        <v>51.709000000000003</v>
-      </c>
-      <c r="C13" s="15">
-        <v>45.472999999999999</v>
-      </c>
-      <c r="D13" s="15">
-        <v>45.988</v>
-      </c>
-      <c r="E13" s="15">
-        <v>56.88</v>
-      </c>
-      <c r="F13" s="15">
-        <v>64.92</v>
-      </c>
-      <c r="G13" s="15">
-        <v>92.831000000000003</v>
-      </c>
-      <c r="H13" s="15">
-        <v>97.372</v>
-      </c>
-      <c r="I13" s="15">
-        <v>115.446</v>
-      </c>
-      <c r="J13" s="15">
-        <v>136.804</v>
-      </c>
-      <c r="K13" s="15">
-        <v>161.25</v>
-      </c>
-      <c r="L13" s="15">
-        <v>184.655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="15">
+        <v>42.235999999999997</v>
+      </c>
+      <c r="C14" s="15">
+        <v>37.329000000000001</v>
+      </c>
+      <c r="D14" s="15">
+        <v>23.628</v>
+      </c>
+      <c r="E14" s="15">
+        <v>25.751999999999999</v>
+      </c>
+      <c r="F14" s="15">
+        <v>32.323</v>
+      </c>
+      <c r="G14" s="15">
+        <v>36.533000000000001</v>
+      </c>
+      <c r="H14" s="15">
+        <v>56.008000000000003</v>
+      </c>
+      <c r="I14" s="15">
+        <v>48.68</v>
+      </c>
+      <c r="J14" s="15">
+        <v>71.513000000000005</v>
+      </c>
+      <c r="K14" s="15">
+        <v>84.441999999999993</v>
+      </c>
+      <c r="L14" s="15">
+        <v>91.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="16">
-        <v>42.235999999999997</v>
-      </c>
-      <c r="C14" s="16">
-        <v>37.329000000000001</v>
-      </c>
-      <c r="D14" s="16">
-        <v>23.628</v>
-      </c>
-      <c r="E14" s="16">
-        <v>25.751999999999999</v>
-      </c>
-      <c r="F14" s="16">
-        <v>32.323</v>
-      </c>
-      <c r="G14" s="16">
-        <v>36.533000000000001</v>
-      </c>
-      <c r="H14" s="16">
-        <v>56.008000000000003</v>
-      </c>
-      <c r="I14" s="16">
-        <v>48.68</v>
-      </c>
-      <c r="J14" s="16">
-        <v>71.513000000000005</v>
-      </c>
-      <c r="K14" s="16">
-        <v>84.441999999999993</v>
-      </c>
-      <c r="L14" s="16">
-        <v>91.12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="B15" s="14">
+        <v>97.828999999999994</v>
+      </c>
+      <c r="C15" s="14">
+        <v>95.355000000000004</v>
+      </c>
+      <c r="D15" s="14">
+        <v>127.015</v>
+      </c>
+      <c r="E15" s="14">
+        <v>154.815</v>
+      </c>
+      <c r="F15" s="14">
+        <v>152.916</v>
+      </c>
+      <c r="G15" s="14">
+        <v>149.68199999999999</v>
+      </c>
+      <c r="H15" s="14">
+        <v>141.38999999999999</v>
+      </c>
+      <c r="I15" s="14">
+        <v>142.154</v>
+      </c>
+      <c r="J15" s="14">
+        <v>150.68700000000001</v>
+      </c>
+      <c r="K15" s="14">
+        <v>152.15199999999999</v>
+      </c>
+      <c r="L15" s="14">
+        <v>155.28100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="15">
-        <v>97.828999999999994</v>
-      </c>
-      <c r="C15" s="15">
-        <v>95.355000000000004</v>
-      </c>
-      <c r="D15" s="15">
-        <v>127.015</v>
-      </c>
-      <c r="E15" s="15">
-        <v>154.815</v>
-      </c>
-      <c r="F15" s="15">
-        <v>152.916</v>
-      </c>
-      <c r="G15" s="15">
-        <v>149.68199999999999</v>
-      </c>
-      <c r="H15" s="15">
-        <v>141.38999999999999</v>
-      </c>
-      <c r="I15" s="15">
-        <v>142.154</v>
-      </c>
-      <c r="J15" s="15">
-        <v>150.68700000000001</v>
-      </c>
-      <c r="K15" s="15">
-        <v>152.15199999999999</v>
-      </c>
-      <c r="L15" s="15">
-        <v>155.28100000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="15">
+        <v>142.94999999999999</v>
+      </c>
+      <c r="C16" s="15">
+        <v>146.292</v>
+      </c>
+      <c r="D16" s="15">
+        <v>148.11600000000001</v>
+      </c>
+      <c r="E16" s="15">
+        <v>153.98400000000001</v>
+      </c>
+      <c r="F16" s="15">
+        <v>161.96700000000001</v>
+      </c>
+      <c r="G16" s="15">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="H16" s="15">
+        <v>158.571</v>
+      </c>
+      <c r="I16" s="15">
+        <v>153.74199999999999</v>
+      </c>
+      <c r="J16" s="15">
+        <v>162.965</v>
+      </c>
+      <c r="K16" s="15">
+        <v>163.96299999999999</v>
+      </c>
+      <c r="L16" s="15">
+        <v>166.11199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="16">
-        <v>142.94999999999999</v>
-      </c>
-      <c r="C16" s="16">
-        <v>146.292</v>
-      </c>
-      <c r="D16" s="16">
-        <v>148.11600000000001</v>
-      </c>
-      <c r="E16" s="16">
-        <v>153.98400000000001</v>
-      </c>
-      <c r="F16" s="16">
-        <v>161.96700000000001</v>
-      </c>
-      <c r="G16" s="16">
-        <v>156.30000000000001</v>
-      </c>
-      <c r="H16" s="16">
-        <v>158.571</v>
-      </c>
-      <c r="I16" s="16">
-        <v>153.74199999999999</v>
-      </c>
-      <c r="J16" s="16">
-        <v>162.965</v>
-      </c>
-      <c r="K16" s="16">
-        <v>163.96299999999999</v>
-      </c>
-      <c r="L16" s="16">
-        <v>166.11199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="14">
+        <v>180.83500000000001</v>
+      </c>
+      <c r="C17" s="14">
+        <v>178.78299999999999</v>
+      </c>
+      <c r="D17" s="14">
+        <v>184.994</v>
+      </c>
+      <c r="E17" s="14">
+        <v>183.80699999999999</v>
+      </c>
+      <c r="F17" s="14">
+        <v>186.834</v>
+      </c>
+      <c r="G17" s="14">
+        <v>200.655</v>
+      </c>
+      <c r="H17" s="14">
+        <v>207.93</v>
+      </c>
+      <c r="I17" s="14">
+        <v>202.595</v>
+      </c>
+      <c r="J17" s="14">
+        <v>211.39699999999999</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
+        <v>222.74299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15">
-        <v>180.83500000000001</v>
-      </c>
-      <c r="C17" s="15">
-        <v>178.78299999999999</v>
-      </c>
-      <c r="D17" s="15">
-        <v>184.994</v>
-      </c>
-      <c r="E17" s="15">
-        <v>183.80699999999999</v>
-      </c>
-      <c r="F17" s="15">
-        <v>186.834</v>
-      </c>
-      <c r="G17" s="15">
-        <v>200.655</v>
-      </c>
-      <c r="H17" s="15">
-        <v>207.93</v>
-      </c>
-      <c r="I17" s="15">
-        <v>202.595</v>
-      </c>
-      <c r="J17" s="15">
-        <v>211.39699999999999</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15">
-        <v>222.74299999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="15">
+        <v>49.747</v>
+      </c>
+      <c r="C18" s="15">
+        <v>47.923999999999999</v>
+      </c>
+      <c r="D18" s="15">
+        <v>53.34</v>
+      </c>
+      <c r="E18" s="15">
+        <v>59.402999999999999</v>
+      </c>
+      <c r="F18" s="15">
+        <v>59.152000000000001</v>
+      </c>
+      <c r="G18" s="15">
+        <v>59.133000000000003</v>
+      </c>
+      <c r="H18" s="15">
+        <v>60.500999999999998</v>
+      </c>
+      <c r="I18" s="15">
+        <v>65.989999999999995</v>
+      </c>
+      <c r="J18" s="15">
+        <v>69.551000000000002</v>
+      </c>
+      <c r="K18" s="15">
+        <v>79.242999999999995</v>
+      </c>
+      <c r="L18" s="15">
+        <v>44.731999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="16">
-        <v>49.747</v>
-      </c>
-      <c r="C18" s="16">
-        <v>47.923999999999999</v>
-      </c>
-      <c r="D18" s="16">
-        <v>53.34</v>
-      </c>
-      <c r="E18" s="16">
-        <v>59.402999999999999</v>
-      </c>
-      <c r="F18" s="16">
-        <v>59.152000000000001</v>
-      </c>
-      <c r="G18" s="16">
-        <v>59.133000000000003</v>
-      </c>
-      <c r="H18" s="16">
-        <v>60.500999999999998</v>
-      </c>
-      <c r="I18" s="16">
-        <v>65.989999999999995</v>
-      </c>
-      <c r="J18" s="16">
-        <v>69.551000000000002</v>
-      </c>
-      <c r="K18" s="16">
-        <v>79.242999999999995</v>
-      </c>
-      <c r="L18" s="16">
-        <v>44.731999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="14">
+        <v>29.756</v>
+      </c>
+      <c r="C19" s="14">
+        <v>36.429000000000002</v>
+      </c>
+      <c r="D19" s="14">
+        <v>44.567999999999998</v>
+      </c>
+      <c r="E19" s="14">
+        <v>43.316000000000003</v>
+      </c>
+      <c r="F19" s="14">
+        <v>47.179000000000002</v>
+      </c>
+      <c r="G19" s="14">
+        <v>48.548999999999999</v>
+      </c>
+      <c r="H19" s="14">
+        <v>41.204999999999998</v>
+      </c>
+      <c r="I19" s="14">
+        <v>51.773000000000003</v>
+      </c>
+      <c r="J19" s="14">
+        <v>40.665999999999997</v>
+      </c>
+      <c r="K19" s="14">
+        <v>44.823999999999998</v>
+      </c>
+      <c r="L19" s="14">
+        <v>47.259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="15">
-        <v>29.756</v>
-      </c>
-      <c r="C19" s="15">
-        <v>36.429000000000002</v>
-      </c>
-      <c r="D19" s="15">
-        <v>44.567999999999998</v>
-      </c>
-      <c r="E19" s="15">
-        <v>43.316000000000003</v>
-      </c>
-      <c r="F19" s="15">
-        <v>47.179000000000002</v>
-      </c>
-      <c r="G19" s="15">
-        <v>48.548999999999999</v>
-      </c>
-      <c r="H19" s="15">
-        <v>41.204999999999998</v>
-      </c>
-      <c r="I19" s="15">
-        <v>51.773000000000003</v>
-      </c>
-      <c r="J19" s="15">
-        <v>40.665999999999997</v>
-      </c>
-      <c r="K19" s="15">
-        <v>44.823999999999998</v>
-      </c>
-      <c r="L19" s="15">
-        <v>47.259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="15">
+        <v>67.656999999999996</v>
+      </c>
+      <c r="C20" s="15">
+        <v>62.286000000000001</v>
+      </c>
+      <c r="D20" s="15">
+        <v>62.683999999999997</v>
+      </c>
+      <c r="E20" s="15">
+        <v>61.08</v>
+      </c>
+      <c r="F20" s="15">
+        <v>60.735999999999997</v>
+      </c>
+      <c r="G20" s="15">
+        <v>60.045999999999999</v>
+      </c>
+      <c r="H20" s="15">
+        <v>59.777999999999999</v>
+      </c>
+      <c r="I20" s="15">
+        <v>60.203000000000003</v>
+      </c>
+      <c r="J20" s="15">
+        <v>63.158000000000001</v>
+      </c>
+      <c r="K20" s="15">
+        <v>68.096000000000004</v>
+      </c>
+      <c r="L20" s="15">
+        <v>77.022999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16">
-        <v>67.656999999999996</v>
-      </c>
-      <c r="C20" s="16">
-        <v>62.286000000000001</v>
-      </c>
-      <c r="D20" s="16">
-        <v>62.683999999999997</v>
-      </c>
-      <c r="E20" s="16">
-        <v>61.08</v>
-      </c>
-      <c r="F20" s="16">
-        <v>60.735999999999997</v>
-      </c>
-      <c r="G20" s="16">
-        <v>60.045999999999999</v>
-      </c>
-      <c r="H20" s="16">
-        <v>59.777999999999999</v>
-      </c>
-      <c r="I20" s="16">
-        <v>60.203000000000003</v>
-      </c>
-      <c r="J20" s="16">
-        <v>63.158000000000001</v>
-      </c>
-      <c r="K20" s="16">
-        <v>68.096000000000004</v>
-      </c>
-      <c r="L20" s="16">
-        <v>77.022999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="14">
+        <v>144.99199999999999</v>
+      </c>
+      <c r="C21" s="14">
+        <v>142.08699999999999</v>
+      </c>
+      <c r="D21" s="14">
+        <v>144.61799999999999</v>
+      </c>
+      <c r="E21" s="14">
+        <v>135.124</v>
+      </c>
+      <c r="F21" s="14">
+        <v>133.15199999999999</v>
+      </c>
+      <c r="G21" s="14">
+        <v>120.928</v>
+      </c>
+      <c r="H21" s="14">
+        <v>127.881</v>
+      </c>
+      <c r="I21" s="14">
+        <v>123.16200000000001</v>
+      </c>
+      <c r="J21" s="14">
+        <v>116.85</v>
+      </c>
+      <c r="K21" s="14">
+        <v>113.926</v>
+      </c>
+      <c r="L21" s="14">
+        <v>114.54900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="15">
-        <v>144.99199999999999</v>
-      </c>
-      <c r="C21" s="15">
-        <v>142.08699999999999</v>
-      </c>
-      <c r="D21" s="15">
-        <v>144.61799999999999</v>
-      </c>
-      <c r="E21" s="15">
-        <v>135.124</v>
-      </c>
-      <c r="F21" s="15">
-        <v>133.15199999999999</v>
-      </c>
-      <c r="G21" s="15">
-        <v>120.928</v>
-      </c>
-      <c r="H21" s="15">
-        <v>127.881</v>
-      </c>
-      <c r="I21" s="15">
-        <v>123.16200000000001</v>
-      </c>
-      <c r="J21" s="15">
-        <v>116.85</v>
-      </c>
-      <c r="K21" s="15">
-        <v>113.926</v>
-      </c>
-      <c r="L21" s="15">
-        <v>114.54900000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="B22" s="15">
+        <v>159.66499999999999</v>
+      </c>
+      <c r="C22" s="15">
+        <v>161.39099999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <v>158.708</v>
+      </c>
+      <c r="E22" s="15">
+        <v>161.56</v>
+      </c>
+      <c r="F22" s="15">
+        <v>165.21</v>
+      </c>
+      <c r="G22" s="15">
+        <v>167.74100000000001</v>
+      </c>
+      <c r="H22" s="15">
+        <v>167.24</v>
+      </c>
+      <c r="I22" s="15">
+        <v>172.20099999999999</v>
+      </c>
+      <c r="J22" s="15">
+        <v>173.38300000000001</v>
+      </c>
+      <c r="K22" s="15">
+        <v>179.54499999999999</v>
+      </c>
+      <c r="L22" s="15">
+        <v>171.86799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="16">
-        <v>159.66499999999999</v>
-      </c>
-      <c r="C22" s="16">
-        <v>161.39099999999999</v>
-      </c>
-      <c r="D22" s="16">
-        <v>158.708</v>
-      </c>
-      <c r="E22" s="16">
-        <v>161.56</v>
-      </c>
-      <c r="F22" s="16">
-        <v>165.21</v>
-      </c>
-      <c r="G22" s="16">
-        <v>167.74100000000001</v>
-      </c>
-      <c r="H22" s="16">
-        <v>167.24</v>
-      </c>
-      <c r="I22" s="16">
-        <v>172.20099999999999</v>
-      </c>
-      <c r="J22" s="16">
-        <v>173.38300000000001</v>
-      </c>
-      <c r="K22" s="16">
-        <v>179.54499999999999</v>
-      </c>
-      <c r="L22" s="16">
-        <v>171.86799999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
         <v>305.541</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>312.851</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>326.95800000000003</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>342.697</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>352.20600000000002</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <v>348.78699999999998</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <v>350.28100000000001</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>371.541</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>376.53100000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{82028793-15B4-4658-8425-6BA49EFBF153}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{57BD3F4F-1F2F-4C3B-A6E7-3B88306A6902}"/>
-    <hyperlink ref="A4" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FE11E3BC-73F6-4CC6-AB19-3CBFE6681782}"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3F4B33F1-C612-4AB9-A05B-21C181858763}"/>
-    <hyperlink ref="A6" r:id="rId5" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6B011531-3890-4D57-800D-A57082D63995}"/>
-    <hyperlink ref="A7" r:id="rId6" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4CC415EE-4C14-4A10-A4D1-8E779E43B81B}"/>
-    <hyperlink ref="A8" r:id="rId7" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0E39E45F-06BF-4CA0-B949-872AA5E655F5}"/>
-    <hyperlink ref="A9" r:id="rId8" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9CB2542E-B2E9-4826-B977-7E845CC5BFE6}"/>
-    <hyperlink ref="A10" r:id="rId9" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FBBEEDAB-B21D-43C7-A791-83A5628BEEDD}"/>
-    <hyperlink ref="A11" r:id="rId10" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2FD024A9-8F49-430B-A251-9DF9759BB969}"/>
-    <hyperlink ref="A12" r:id="rId11" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9EE97E70-4870-4417-9611-072BEC107E7C}"/>
-    <hyperlink ref="A13" r:id="rId12" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6F184EEE-DF47-482E-95EC-5DD0F26D99E3}"/>
-    <hyperlink ref="A14" r:id="rId13" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B256BCBB-4119-4A82-89CD-C425588D1340}"/>
-    <hyperlink ref="A15" r:id="rId14" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B46C84B2-D7F4-4A72-B353-2193BF8AC4F6}"/>
-    <hyperlink ref="A16" r:id="rId15" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{747B9493-0CF1-447B-A59F-B5BC885146D4}"/>
-    <hyperlink ref="A17" r:id="rId16" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{693854AB-BEE6-4ACE-ACC0-4A489649E1EB}"/>
-    <hyperlink ref="A18" r:id="rId17" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9459FEAD-25B2-44BB-A22B-152DE2035387}"/>
-    <hyperlink ref="A19" r:id="rId18" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{242DE4AA-E956-4C3C-BEE0-CE1673663240}"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F0B144E7-8F06-4B3F-91EB-BF9CAFC94146}"/>
-    <hyperlink ref="A21" r:id="rId20" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1BACE940-0828-46DA-A62C-12F841A94C00}"/>
-    <hyperlink ref="A22" r:id="rId21" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{17593ED4-98E4-482A-AC1B-694B231A5B7D}"/>
-    <hyperlink ref="A23" r:id="rId22" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1CB8B12A-0A9B-4923-B131-930E80594C53}"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{57BD3F4F-1F2F-4C3B-A6E7-3B88306A6902}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FE11E3BC-73F6-4CC6-AB19-3CBFE6681782}"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{3F4B33F1-C612-4AB9-A05B-21C181858763}"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6B011531-3890-4D57-800D-A57082D63995}"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4CC415EE-4C14-4A10-A4D1-8E779E43B81B}"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0E39E45F-06BF-4CA0-B949-872AA5E655F5}"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9CB2542E-B2E9-4826-B977-7E845CC5BFE6}"/>
+    <hyperlink ref="A10" r:id="rId8" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FBBEEDAB-B21D-43C7-A791-83A5628BEEDD}"/>
+    <hyperlink ref="A11" r:id="rId9" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2FD024A9-8F49-430B-A251-9DF9759BB969}"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9EE97E70-4870-4417-9611-072BEC107E7C}"/>
+    <hyperlink ref="A13" r:id="rId11" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6F184EEE-DF47-482E-95EC-5DD0F26D99E3}"/>
+    <hyperlink ref="A14" r:id="rId12" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B256BCBB-4119-4A82-89CD-C425588D1340}"/>
+    <hyperlink ref="A15" r:id="rId13" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B46C84B2-D7F4-4A72-B353-2193BF8AC4F6}"/>
+    <hyperlink ref="A16" r:id="rId14" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{747B9493-0CF1-447B-A59F-B5BC885146D4}"/>
+    <hyperlink ref="A17" r:id="rId15" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{693854AB-BEE6-4ACE-ACC0-4A489649E1EB}"/>
+    <hyperlink ref="A18" r:id="rId16" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{9459FEAD-25B2-44BB-A22B-152DE2035387}"/>
+    <hyperlink ref="A19" r:id="rId17" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{242DE4AA-E956-4C3C-BEE0-CE1673663240}"/>
+    <hyperlink ref="A20" r:id="rId18" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F0B144E7-8F06-4B3F-91EB-BF9CAFC94146}"/>
+    <hyperlink ref="A21" r:id="rId19" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1BACE940-0828-46DA-A62C-12F841A94C00}"/>
+    <hyperlink ref="A22" r:id="rId20" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{17593ED4-98E4-482A-AC1B-694B231A5B7D}"/>
+    <hyperlink ref="A23" r:id="rId21" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1CB8B12A-0A9B-4923-B131-930E80594C53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3611,53 +4008,53 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="6">
         <v>0.53670289028642182</v>
@@ -3698,8 +4095,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
+      <c r="A4" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="6">
         <v>0.48507047174034085</v>
@@ -3740,8 +4137,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>16</v>
+      <c r="A5" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>0.46353576487252124</v>
@@ -3782,8 +4179,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
+      <c r="A6" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="6">
         <v>0.80867792137695271</v>
@@ -3824,8 +4221,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>18</v>
+      <c r="A7" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="6">
         <v>0.69850111877767684</v>
@@ -3866,8 +4263,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>19</v>
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>0.53185407024230869</v>
@@ -3908,8 +4305,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>21</v>
+      <c r="A9" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>0.42156823978330932</v>
@@ -3950,8 +4347,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
+      <c r="A10" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="6">
         <v>0.99284783686457756</v>
@@ -3990,8 +4387,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>23</v>
+      <c r="A11" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="6">
         <v>0.64863500306538291</v>
@@ -4032,8 +4429,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>24</v>
+      <c r="A12" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="6">
         <v>0.82594980428275377</v>
@@ -4074,8 +4471,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>25</v>
+      <c r="A13" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="6">
         <v>0.61140539645754022</v>
@@ -4116,8 +4513,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
+      <c r="A14" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>0.84021643988223116</v>
@@ -4158,8 +4555,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
+      <c r="A15" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="6">
         <v>0.39790207514784715</v>
@@ -4200,8 +4597,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>28</v>
+      <c r="A16" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="6">
         <v>0.89589561358978687</v>
@@ -4242,8 +4639,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>29</v>
+      <c r="A17" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="6">
         <v>0.74052613043513871</v>
@@ -4282,8 +4679,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>30</v>
+      <c r="A18" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="6">
         <v>0.65665672272235276</v>
@@ -4324,8 +4721,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>31</v>
+      <c r="A19" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="6">
         <v>0.41638912988721277</v>
@@ -4366,8 +4763,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>32</v>
+      <c r="A20" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="6">
         <v>0.51331133113311322</v>
@@ -4408,8 +4805,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>33</v>
+      <c r="A21" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="6">
         <v>0.98598464499194161</v>
@@ -4450,8 +4847,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>34</v>
+      <c r="A22" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="6">
         <v>0.59590500752042452</v>
@@ -4492,8 +4889,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>35</v>
+      <c r="A23" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4560,1182 +4957,2983 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="F3" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3</v>
+      </c>
+      <c r="H4" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="I4" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="J4" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="K4" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="L4" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="C5" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="D5" s="20">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="F5" s="19">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G5" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H5" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="J5" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="L5" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="B7" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="C7" s="20">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E7" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F7" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="H7" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J7" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="L7" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="K8" s="20">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="G9" s="20">
+        <v>4</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I9" s="20">
+        <v>4</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="K9" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="L9" s="20">
+        <v>4</v>
+      </c>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="19">
+        <v>7.9</v>
+      </c>
+      <c r="C10" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="F10" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H10" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="I10" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="J10" s="20">
+        <v>10</v>
+      </c>
+      <c r="K10" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="L10" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="20">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C11" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="D11" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="F11" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H11" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="K11" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L11" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F12" s="20">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="J12" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="K12" s="20">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="L12" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>2</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="C14" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>6</v>
+      </c>
+      <c r="E14" s="20">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="G14" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H14" s="19">
+        <v>12.9</v>
+      </c>
+      <c r="I14" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="J14" s="19">
+        <v>13.8</v>
+      </c>
+      <c r="K14" s="20">
+        <v>10</v>
+      </c>
+      <c r="L14" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="20">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="C15" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I15" s="20">
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="L15" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="D16" s="19">
+        <v>9.6</v>
+      </c>
+      <c r="E16" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="I16" s="19">
+        <v>10.4</v>
+      </c>
+      <c r="J16" s="20">
+        <v>8</v>
+      </c>
+      <c r="K16" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="L16" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="D17" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="E17" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="G17" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H17" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I17" s="20">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="19" t="s">
+      <c r="J17" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="K17" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C18" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="E18" s="19">
+        <v>9.5</v>
+      </c>
+      <c r="F18" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G18" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H18" s="19">
+        <v>10.3</v>
+      </c>
+      <c r="I18" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="J18" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="C19" s="19">
+        <v>13.8</v>
+      </c>
+      <c r="D19" s="19">
+        <v>18.3</v>
+      </c>
+      <c r="E19" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="F19" s="19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G19" s="19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H19" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I19" s="19">
+        <v>13.9</v>
+      </c>
+      <c r="J19" s="19">
+        <v>13.6</v>
+      </c>
+      <c r="K19" s="19">
+        <v>13.9</v>
+      </c>
+      <c r="L19" s="19">
+        <v>14.2</v>
+      </c>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="C20" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="D20" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="H20" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="K20" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="L20" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1.4</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="I22" s="20">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="20">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="C24" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="D24" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="G24" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="H24" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="I24" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="K24" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="L24" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C25" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D25" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F25" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G25" s="20">
+        <v>5</v>
+      </c>
+      <c r="H25" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="I25" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="J25" s="19">
+        <v>3.7</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="L25" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="C26" s="20">
         <v>12</v>
       </c>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="D26" s="19">
+        <v>11.5</v>
+      </c>
+      <c r="E26" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>13.8</v>
+      </c>
+      <c r="G26" s="19">
+        <v>14.3</v>
+      </c>
+      <c r="H26" s="19">
+        <v>15.7</v>
+      </c>
+      <c r="I26" s="19">
+        <v>14.6</v>
+      </c>
+      <c r="J26" s="20">
         <v>14</v>
       </c>
-      <c r="B3" s="20">
+      <c r="K26" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="L26" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="C27" s="19">
+        <v>12.3</v>
+      </c>
+      <c r="D27" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="E27" s="19">
+        <v>12.4</v>
+      </c>
+      <c r="F27" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="G27" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="H27" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="I27" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="J27" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="K27" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="L27" s="20">
+        <v>5</v>
+      </c>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="19">
         <v>1.6</v>
       </c>
-      <c r="C3" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="F3" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="G3" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="J3" s="20">
+      <c r="D28" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H28" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="L28" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="19">
         <v>0.5</v>
       </c>
-      <c r="K3" s="20">
+      <c r="C29" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="E29" s="19">
         <v>0.8</v>
       </c>
-      <c r="L3" s="20">
+      <c r="F29" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="I29" s="19">
         <v>0.5</v>
       </c>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="C4" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="D4" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="E4" s="21">
-        <v>3</v>
-      </c>
-      <c r="F4" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="G4" s="21">
-        <v>3</v>
-      </c>
-      <c r="H4" s="20">
-        <v>3.9</v>
-      </c>
-      <c r="I4" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="J4" s="20">
+      <c r="J29" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="K29" s="19">
         <v>3.8</v>
       </c>
-      <c r="K4" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="L4" s="20">
-        <v>3.1</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="20">
-        <v>16.5</v>
-      </c>
-      <c r="C5" s="20">
-        <v>13.4</v>
-      </c>
-      <c r="D5" s="21">
-        <v>12</v>
-      </c>
-      <c r="E5" s="20">
-        <v>10.8</v>
-      </c>
-      <c r="F5" s="20">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G5" s="20">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H5" s="20">
-        <v>6.7</v>
-      </c>
-      <c r="I5" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="J5" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="K5" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="L5" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="L29" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="20">
+        <v>4</v>
+      </c>
+      <c r="C30" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="D30" s="20">
+        <v>5</v>
+      </c>
+      <c r="E30" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="F30" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="I30" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J30" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="K30" s="20">
+        <v>4</v>
+      </c>
+      <c r="L30" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="C31" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="D31" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E31" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F31" s="20">
+        <v>5</v>
+      </c>
+      <c r="G31" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="H31" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I31" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="J31" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="K31" s="19">
         <v>1.9</v>
       </c>
-      <c r="G6" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I6" s="21">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="L6" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="20">
-        <v>4.7</v>
-      </c>
-      <c r="C7" s="21">
-        <v>6</v>
-      </c>
-      <c r="D7" s="20">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E7" s="20">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F7" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="G7" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="H7" s="20">
-        <v>8.6</v>
-      </c>
-      <c r="I7" s="20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J7" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="K7" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="L7" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="C8" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J8" s="21">
-        <v>1</v>
-      </c>
-      <c r="K8" s="21">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21">
-        <v>1</v>
-      </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="C9" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="F9" s="20">
-        <v>3.1</v>
-      </c>
-      <c r="G9" s="21">
-        <v>4</v>
-      </c>
-      <c r="H9" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I9" s="21">
-        <v>4</v>
-      </c>
-      <c r="J9" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="K9" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="L9" s="21">
-        <v>4</v>
-      </c>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20">
-        <v>7.9</v>
-      </c>
-      <c r="C10" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D10" s="20">
-        <v>5.7</v>
-      </c>
-      <c r="E10" s="20">
-        <v>7.8</v>
-      </c>
-      <c r="F10" s="20">
-        <v>8.1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H10" s="20">
-        <v>8.6</v>
-      </c>
-      <c r="I10" s="20">
-        <v>11.1</v>
-      </c>
-      <c r="J10" s="21">
-        <v>10</v>
-      </c>
-      <c r="K10" s="20">
-        <v>6.7</v>
-      </c>
-      <c r="L10" s="20">
-        <v>6.5</v>
-      </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21">
-        <v>2</v>
-      </c>
-      <c r="C11" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="D11" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="E11" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="F11" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="G11" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H11" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="I11" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="J11" s="20">
-        <v>5.4</v>
-      </c>
-      <c r="K11" s="20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L11" s="20">
-        <v>5.6</v>
-      </c>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="C12" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D12" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F12" s="21">
-        <v>5</v>
-      </c>
-      <c r="G12" s="20">
-        <v>5.4</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5.6</v>
-      </c>
-      <c r="I12" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="J12" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="K12" s="21">
-        <v>3</v>
-      </c>
-      <c r="L12" s="20">
-        <v>3.2</v>
-      </c>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="C13" s="20">
-        <v>2.6</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="G13" s="21">
-        <v>2</v>
-      </c>
-      <c r="H13" s="21">
-        <v>2</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="J13" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="L13" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="C14" s="20">
-        <v>6.1</v>
-      </c>
-      <c r="D14" s="21">
-        <v>6</v>
-      </c>
-      <c r="E14" s="21">
-        <v>7</v>
-      </c>
-      <c r="F14" s="20">
-        <v>7.4</v>
-      </c>
-      <c r="G14" s="20">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H14" s="20">
-        <v>12.9</v>
-      </c>
-      <c r="I14" s="20">
-        <v>12.5</v>
-      </c>
-      <c r="J14" s="20">
-        <v>13.8</v>
-      </c>
-      <c r="K14" s="21">
-        <v>10</v>
-      </c>
-      <c r="L14" s="20">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="21">
-        <v>4</v>
-      </c>
-      <c r="C15" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="D15" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="E15" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F15" s="20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G15" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="H15" s="20">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I15" s="21">
-        <v>4</v>
-      </c>
-      <c r="J15" s="20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1.8</v>
-      </c>
-      <c r="L15" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="C16" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="D16" s="20">
-        <v>9.6</v>
-      </c>
-      <c r="E16" s="20">
-        <v>11.3</v>
-      </c>
-      <c r="F16" s="20">
-        <v>10.1</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20">
-        <v>10.7</v>
-      </c>
-      <c r="I16" s="20">
-        <v>10.4</v>
-      </c>
-      <c r="J16" s="21">
-        <v>8</v>
-      </c>
-      <c r="K16" s="20">
-        <v>7.8</v>
-      </c>
-      <c r="L16" s="20">
-        <v>7.8</v>
-      </c>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="20">
+      <c r="L31" s="19">
         <v>1.9</v>
       </c>
-      <c r="C17" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="E17" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="F17" s="20">
-        <v>6.3</v>
-      </c>
-      <c r="G17" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="H17" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="I17" s="21">
-        <v>5</v>
-      </c>
-      <c r="J17" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="K17" s="20">
-        <v>3.2</v>
-      </c>
-      <c r="L17" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="20">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C18" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="D18" s="20">
-        <v>7.7</v>
-      </c>
-      <c r="E18" s="20">
-        <v>9.5</v>
-      </c>
-      <c r="F18" s="20">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G18" s="20">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H18" s="20">
-        <v>10.3</v>
-      </c>
-      <c r="I18" s="20">
-        <v>9.9</v>
-      </c>
-      <c r="J18" s="20">
-        <v>8.5</v>
-      </c>
-      <c r="K18" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="L18" s="20">
-        <v>2.8</v>
-      </c>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="20">
-        <v>12.8</v>
-      </c>
-      <c r="C19" s="20">
-        <v>13.8</v>
-      </c>
-      <c r="D19" s="20">
-        <v>18.3</v>
-      </c>
-      <c r="E19" s="20">
-        <v>20.7</v>
-      </c>
-      <c r="F19" s="20">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G19" s="20">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="H19" s="20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I19" s="20">
-        <v>13.9</v>
-      </c>
-      <c r="J19" s="20">
-        <v>13.6</v>
-      </c>
-      <c r="K19" s="20">
-        <v>13.9</v>
-      </c>
-      <c r="L19" s="20">
-        <v>14.2</v>
-      </c>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="C20" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3.4</v>
-      </c>
-      <c r="E20" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="F20" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="G20" s="20">
-        <v>4.3</v>
-      </c>
-      <c r="H20" s="20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I20" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="J20" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="K20" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="L20" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="I21" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J21" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K21" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="D22" s="20">
-        <v>1.3</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="F22" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="I22" s="21">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="K22" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="L22" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="C23" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="I23" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="J23" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="K23" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="20">
-        <v>5.9</v>
-      </c>
-      <c r="C24" s="20">
-        <v>6.8</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="E24" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="F24" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="G24" s="20">
-        <v>5.5</v>
-      </c>
-      <c r="H24" s="20">
-        <v>3.3</v>
-      </c>
-      <c r="I24" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="J24" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="K24" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="L24" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C25" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D25" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="E25" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="F25" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G25" s="21">
-        <v>5</v>
-      </c>
-      <c r="H25" s="20">
-        <v>4.8</v>
-      </c>
-      <c r="I25" s="20">
-        <v>4.2</v>
-      </c>
-      <c r="J25" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="K25" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="L25" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="20">
-        <v>7.3</v>
-      </c>
-      <c r="C26" s="21">
-        <v>12</v>
-      </c>
-      <c r="D26" s="20">
-        <v>11.5</v>
-      </c>
-      <c r="E26" s="20">
-        <v>9.1</v>
-      </c>
-      <c r="F26" s="20">
-        <v>13.8</v>
-      </c>
-      <c r="G26" s="20">
-        <v>14.3</v>
-      </c>
-      <c r="H26" s="20">
-        <v>15.7</v>
-      </c>
-      <c r="I26" s="20">
-        <v>14.6</v>
-      </c>
-      <c r="J26" s="21">
-        <v>14</v>
-      </c>
-      <c r="K26" s="20">
-        <v>11.6</v>
-      </c>
-      <c r="L26" s="20">
-        <v>10.9</v>
-      </c>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="20">
-        <v>11.9</v>
-      </c>
-      <c r="C27" s="20">
-        <v>12.3</v>
-      </c>
-      <c r="D27" s="20">
-        <v>11.3</v>
-      </c>
-      <c r="E27" s="20">
-        <v>12.4</v>
-      </c>
-      <c r="F27" s="20">
-        <v>10.9</v>
-      </c>
-      <c r="G27" s="20">
-        <v>10.9</v>
-      </c>
-      <c r="H27" s="20">
-        <v>9.9</v>
-      </c>
-      <c r="I27" s="20">
-        <v>8.6</v>
-      </c>
-      <c r="J27" s="20">
-        <v>6.5</v>
-      </c>
-      <c r="K27" s="20">
-        <v>5.4</v>
-      </c>
-      <c r="L27" s="21">
-        <v>5</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1.6</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="G28" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H28" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="I28" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="J28" s="20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K28" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="L28" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="E29" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="I29" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="K29" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="L29" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="21">
-        <v>4</v>
-      </c>
-      <c r="C30" s="20">
-        <v>4.7</v>
-      </c>
-      <c r="D30" s="21">
-        <v>5</v>
-      </c>
-      <c r="E30" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="F30" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="G30" s="20">
-        <v>7.5</v>
-      </c>
-      <c r="H30" s="20">
-        <v>7.6</v>
-      </c>
-      <c r="I30" s="20">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J30" s="20">
-        <v>5.3</v>
-      </c>
-      <c r="K30" s="21">
-        <v>4</v>
-      </c>
-      <c r="L30" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="20">
-        <v>6.8</v>
-      </c>
-      <c r="C31" s="20">
-        <v>6.3</v>
-      </c>
-      <c r="D31" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E31" s="20">
-        <v>5.4</v>
-      </c>
-      <c r="F31" s="21">
-        <v>5</v>
-      </c>
-      <c r="G31" s="20">
-        <v>5.7</v>
-      </c>
-      <c r="H31" s="20">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I31" s="20">
-        <v>3.8</v>
-      </c>
-      <c r="J31" s="20">
-        <v>3.6</v>
-      </c>
-      <c r="K31" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="L31" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="M31" s="20"/>
+      <c r="M31" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD1F3FD-FBD3-44CD-BAA7-079339CEF0D3}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="25"/>
+    <col min="4" max="4" width="11.5703125" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="32">
+        <v>113.746</v>
+      </c>
+      <c r="C3" s="32">
+        <v>112.819</v>
+      </c>
+      <c r="D3" s="32">
+        <v>116.047</v>
+      </c>
+      <c r="E3" s="32">
+        <v>116.59399999999999</v>
+      </c>
+      <c r="F3" s="32">
+        <v>119.547</v>
+      </c>
+      <c r="G3" s="32">
+        <v>123.363</v>
+      </c>
+      <c r="H3" s="32">
+        <v>125.081</v>
+      </c>
+      <c r="I3" s="32">
+        <v>128.495</v>
+      </c>
+      <c r="J3" s="32">
+        <v>138.55500000000001</v>
+      </c>
+      <c r="K3" s="32">
+        <v>138.714</v>
+      </c>
+      <c r="L3" s="32">
+        <v>149.55799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="28">
+        <v>47.165999999999997</v>
+      </c>
+      <c r="C4" s="28">
+        <v>51.110999999999997</v>
+      </c>
+      <c r="D4" s="28">
+        <v>53.097000000000001</v>
+      </c>
+      <c r="E4" s="28">
+        <v>53.863</v>
+      </c>
+      <c r="F4" s="28">
+        <v>55.389000000000003</v>
+      </c>
+      <c r="G4" s="28">
+        <v>59.237000000000002</v>
+      </c>
+      <c r="H4" s="28">
+        <v>60.500999999999998</v>
+      </c>
+      <c r="I4" s="28">
+        <v>62.423999999999999</v>
+      </c>
+      <c r="J4" s="28">
+        <v>61.978999999999999</v>
+      </c>
+      <c r="K4" s="28">
+        <v>61.308999999999997</v>
+      </c>
+      <c r="L4" s="28">
+        <v>62.209000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21">
+        <v>60.598999999999997</v>
+      </c>
+      <c r="C5" s="21">
+        <v>65.849000000000004</v>
+      </c>
+      <c r="D5" s="21">
+        <v>68.599000000000004</v>
+      </c>
+      <c r="E5" s="21">
+        <v>70.12</v>
+      </c>
+      <c r="F5" s="21">
+        <v>70.152000000000001</v>
+      </c>
+      <c r="G5" s="21">
+        <v>71.763000000000005</v>
+      </c>
+      <c r="H5" s="21">
+        <v>66.218999999999994</v>
+      </c>
+      <c r="I5" s="21">
+        <v>65.234999999999999</v>
+      </c>
+      <c r="J5" s="21">
+        <v>67.075999999999993</v>
+      </c>
+      <c r="K5" s="21">
+        <v>75.14</v>
+      </c>
+      <c r="L5" s="21">
+        <v>74.228999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22">
+        <v>31.902999999999999</v>
+      </c>
+      <c r="C6" s="22">
+        <v>33.003</v>
+      </c>
+      <c r="D6" s="22">
+        <v>37.012</v>
+      </c>
+      <c r="E6" s="22">
+        <v>37.865000000000002</v>
+      </c>
+      <c r="F6" s="22">
+        <v>38.488</v>
+      </c>
+      <c r="G6" s="22">
+        <v>35.088000000000001</v>
+      </c>
+      <c r="H6" s="22">
+        <v>35.037999999999997</v>
+      </c>
+      <c r="I6" s="22">
+        <v>40.463999999999999</v>
+      </c>
+      <c r="J6" s="22">
+        <v>42.279000000000003</v>
+      </c>
+      <c r="K6" s="22">
+        <v>43.441000000000003</v>
+      </c>
+      <c r="L6" s="22">
+        <v>43.429000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="21">
+        <v>32.204000000000001</v>
+      </c>
+      <c r="C7" s="21">
+        <v>34.619</v>
+      </c>
+      <c r="D7" s="21">
+        <v>33.384999999999998</v>
+      </c>
+      <c r="E7" s="21">
+        <v>32.875</v>
+      </c>
+      <c r="F7" s="21">
+        <v>35.831000000000003</v>
+      </c>
+      <c r="G7" s="21">
+        <v>40.252000000000002</v>
+      </c>
+      <c r="H7" s="21">
+        <v>42.643999999999998</v>
+      </c>
+      <c r="I7" s="21">
+        <v>44.728000000000002</v>
+      </c>
+      <c r="J7" s="21">
+        <v>46.664999999999999</v>
+      </c>
+      <c r="K7" s="21">
+        <v>53.573</v>
+      </c>
+      <c r="L7" s="21">
+        <v>65.777000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="22">
+        <v>82.534999999999997</v>
+      </c>
+      <c r="C8" s="22">
+        <v>83.790999999999997</v>
+      </c>
+      <c r="D8" s="22">
+        <v>81.637</v>
+      </c>
+      <c r="E8" s="22">
+        <v>85.846999999999994</v>
+      </c>
+      <c r="F8" s="22">
+        <v>88.22</v>
+      </c>
+      <c r="G8" s="22">
+        <v>90.995000000000005</v>
+      </c>
+      <c r="H8" s="22">
+        <v>89.245000000000005</v>
+      </c>
+      <c r="I8" s="22">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="J8" s="22">
+        <v>63.558999999999997</v>
+      </c>
+      <c r="K8" s="22">
+        <v>62.487000000000002</v>
+      </c>
+      <c r="L8" s="22">
+        <v>65.388000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21">
+        <v>175.53899999999999</v>
+      </c>
+      <c r="C9" s="21">
+        <v>215.851</v>
+      </c>
+      <c r="D9" s="21">
+        <v>226.33699999999999</v>
+      </c>
+      <c r="E9" s="21">
+        <v>233.238</v>
+      </c>
+      <c r="F9" s="21">
+        <v>240.55699999999999</v>
+      </c>
+      <c r="G9" s="21">
+        <v>256.62700000000001</v>
+      </c>
+      <c r="H9" s="21">
+        <v>259.71899999999999</v>
+      </c>
+      <c r="I9" s="21">
+        <v>261.733</v>
+      </c>
+      <c r="J9" s="21">
+        <v>274.03100000000001</v>
+      </c>
+      <c r="K9" s="21">
+        <v>279.77199999999999</v>
+      </c>
+      <c r="L9" s="21">
+        <v>284.40800000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="22">
+        <v>1.86</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1.974</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
+        <v>0.376</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="21">
+        <v>19.486999999999998</v>
+      </c>
+      <c r="C11" s="21">
+        <v>19.138000000000002</v>
+      </c>
+      <c r="D11" s="21">
+        <v>20.76</v>
+      </c>
+      <c r="E11" s="21">
+        <v>22.024999999999999</v>
+      </c>
+      <c r="F11" s="21">
+        <v>21.106999999999999</v>
+      </c>
+      <c r="G11" s="21">
+        <v>23.286999999999999</v>
+      </c>
+      <c r="H11" s="21">
+        <v>23.477</v>
+      </c>
+      <c r="I11" s="21">
+        <v>22.826000000000001</v>
+      </c>
+      <c r="J11" s="21">
+        <v>24.068999999999999</v>
+      </c>
+      <c r="K11" s="21">
+        <v>28.887</v>
+      </c>
+      <c r="L11" s="21">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="22">
+        <v>37.795000000000002</v>
+      </c>
+      <c r="C12" s="22">
+        <v>33.652999999999999</v>
+      </c>
+      <c r="D12" s="22">
+        <v>30.263999999999999</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30.449000000000002</v>
+      </c>
+      <c r="F12" s="22">
+        <v>31.742999999999999</v>
+      </c>
+      <c r="G12" s="22">
+        <v>38.991999999999997</v>
+      </c>
+      <c r="H12" s="22">
+        <v>51.402999999999999</v>
+      </c>
+      <c r="I12" s="22">
+        <v>56.252000000000002</v>
+      </c>
+      <c r="J12" s="22">
+        <v>61.151000000000003</v>
+      </c>
+      <c r="K12" s="22">
+        <v>67.058000000000007</v>
+      </c>
+      <c r="L12" s="22">
+        <v>74.531000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="21">
+        <v>32.865000000000002</v>
+      </c>
+      <c r="C13" s="21">
+        <v>31.401</v>
+      </c>
+      <c r="D13" s="21">
+        <v>25.484999999999999</v>
+      </c>
+      <c r="E13" s="21">
+        <v>27.832999999999998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>25.884</v>
+      </c>
+      <c r="G13" s="21">
+        <v>26.710999999999999</v>
+      </c>
+      <c r="H13" s="21">
+        <v>27.26</v>
+      </c>
+      <c r="I13" s="21">
+        <v>28.036000000000001</v>
+      </c>
+      <c r="J13" s="21">
+        <v>29.542000000000002</v>
+      </c>
+      <c r="K13" s="21">
+        <v>31.588000000000001</v>
+      </c>
+      <c r="L13" s="21">
+        <v>34.256999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="22">
+        <v>8.0329999999999995</v>
+      </c>
+      <c r="C14" s="22">
+        <v>8.1340000000000003</v>
+      </c>
+      <c r="D14" s="22">
+        <v>7.7149999999999999</v>
+      </c>
+      <c r="E14" s="22">
+        <v>7.9290000000000003</v>
+      </c>
+      <c r="F14" s="22">
+        <v>7.758</v>
+      </c>
+      <c r="G14" s="22">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="H14" s="22">
+        <v>7.2830000000000004</v>
+      </c>
+      <c r="I14" s="22">
+        <v>16.358000000000001</v>
+      </c>
+      <c r="J14" s="22">
+        <v>16.611999999999998</v>
+      </c>
+      <c r="K14" s="22">
+        <v>18.274999999999999</v>
+      </c>
+      <c r="L14" s="22">
+        <v>21.414000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="21">
+        <v>148.03299999999999</v>
+      </c>
+      <c r="C15" s="21">
+        <v>150.53899999999999</v>
+      </c>
+      <c r="D15" s="21">
+        <v>149.28</v>
+      </c>
+      <c r="E15" s="21">
+        <v>113.86199999999999</v>
+      </c>
+      <c r="F15" s="21">
+        <v>113.42100000000001</v>
+      </c>
+      <c r="G15" s="21">
+        <v>115.71</v>
+      </c>
+      <c r="H15" s="21">
+        <v>118.086</v>
+      </c>
+      <c r="I15" s="21">
+        <v>118.262</v>
+      </c>
+      <c r="J15" s="21">
+        <v>120.94</v>
+      </c>
+      <c r="K15" s="21">
+        <v>128.93799999999999</v>
+      </c>
+      <c r="L15" s="21">
+        <v>132.15299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="22">
+        <v>16.611000000000001</v>
+      </c>
+      <c r="C16" s="22">
+        <v>15.371</v>
+      </c>
+      <c r="D16" s="22">
+        <v>15.081</v>
+      </c>
+      <c r="E16" s="22">
+        <v>19.042000000000002</v>
+      </c>
+      <c r="F16" s="22">
+        <v>19.274999999999999</v>
+      </c>
+      <c r="G16" s="22">
+        <v>16.843</v>
+      </c>
+      <c r="H16" s="22">
+        <v>16.100999999999999</v>
+      </c>
+      <c r="I16" s="22">
+        <v>12.183</v>
+      </c>
+      <c r="J16" s="22">
+        <v>12.648999999999999</v>
+      </c>
+      <c r="K16" s="22">
+        <v>20.416</v>
+      </c>
+      <c r="L16" s="22">
+        <v>21.335999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="21">
+        <v>63.362000000000002</v>
+      </c>
+      <c r="C17" s="21">
+        <v>65.697999999999993</v>
+      </c>
+      <c r="D17" s="21">
+        <v>65.960999999999999</v>
+      </c>
+      <c r="E17" s="21">
+        <v>73.899000000000001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>75.766999999999996</v>
+      </c>
+      <c r="G17" s="21">
+        <v>82.754000000000005</v>
+      </c>
+      <c r="H17" s="21">
+        <v>88.067999999999998</v>
+      </c>
+      <c r="I17" s="21">
+        <v>86.105000000000004</v>
+      </c>
+      <c r="J17" s="21">
+        <v>87.606999999999999</v>
+      </c>
+      <c r="K17" s="21">
+        <v>88.304000000000002</v>
+      </c>
+      <c r="L17" s="21">
+        <v>86.784999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="22">
+        <v>26.012</v>
+      </c>
+      <c r="C18" s="22">
+        <v>26.997</v>
+      </c>
+      <c r="D18" s="22">
+        <v>26.04</v>
+      </c>
+      <c r="E18" s="22">
+        <v>26.353000000000002</v>
+      </c>
+      <c r="F18" s="22">
+        <v>27.809000000000001</v>
+      </c>
+      <c r="G18" s="22">
+        <v>28.146000000000001</v>
+      </c>
+      <c r="H18" s="22">
+        <v>27.314</v>
+      </c>
+      <c r="I18" s="22">
+        <v>22.629000000000001</v>
+      </c>
+      <c r="J18" s="22">
+        <v>24.657</v>
+      </c>
+      <c r="K18" s="22">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="L18" s="22">
+        <v>24.931000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="21">
+        <v>41.706000000000003</v>
+      </c>
+      <c r="C19" s="21">
+        <v>41.128</v>
+      </c>
+      <c r="D19" s="21">
+        <v>43.478999999999999</v>
+      </c>
+      <c r="E19" s="21">
+        <v>45.758000000000003</v>
+      </c>
+      <c r="F19" s="21">
+        <v>48.04</v>
+      </c>
+      <c r="G19" s="21">
+        <v>51.167000000000002</v>
+      </c>
+      <c r="H19" s="21">
+        <v>48.076999999999998</v>
+      </c>
+      <c r="I19" s="21">
+        <v>48.069000000000003</v>
+      </c>
+      <c r="J19" s="21">
+        <v>50.384</v>
+      </c>
+      <c r="K19" s="21">
+        <v>49.982999999999997</v>
+      </c>
+      <c r="L19" s="21">
+        <v>53.793999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="22">
+        <v>64.147000000000006</v>
+      </c>
+      <c r="C20" s="22">
+        <v>64.406000000000006</v>
+      </c>
+      <c r="D20" s="22">
+        <v>63.648000000000003</v>
+      </c>
+      <c r="E20" s="22">
+        <v>64.647000000000006</v>
+      </c>
+      <c r="F20" s="22">
+        <v>63.962000000000003</v>
+      </c>
+      <c r="G20" s="22">
+        <v>63.042999999999999</v>
+      </c>
+      <c r="H20" s="22">
+        <v>61.930999999999997</v>
+      </c>
+      <c r="I20" s="22">
+        <v>87.272000000000006</v>
+      </c>
+      <c r="J20" s="22">
+        <v>66.495999999999995</v>
+      </c>
+      <c r="K20" s="22">
+        <v>67.117000000000004</v>
+      </c>
+      <c r="L20" s="22">
+        <v>72.918999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="21">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2.089</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="F21" s="21">
+        <v>2.149</v>
+      </c>
+      <c r="G21" s="21">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="H21" s="21">
+        <v>1.87</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="K21" s="21">
+        <v>1.843</v>
+      </c>
+      <c r="L21" s="21">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="22">
+        <v>108.27200000000001</v>
+      </c>
+      <c r="C22" s="22">
+        <v>116.542</v>
+      </c>
+      <c r="D22" s="22">
+        <v>107.46599999999999</v>
+      </c>
+      <c r="E22" s="22">
+        <v>109.28400000000001</v>
+      </c>
+      <c r="F22" s="22">
+        <v>110.998</v>
+      </c>
+      <c r="G22" s="22">
+        <v>109.224</v>
+      </c>
+      <c r="H22" s="22">
+        <v>112.354</v>
+      </c>
+      <c r="I22" s="22">
+        <v>112.437</v>
+      </c>
+      <c r="J22" s="22">
+        <v>116.67700000000001</v>
+      </c>
+      <c r="K22" s="22">
+        <v>124.30200000000001</v>
+      </c>
+      <c r="L22" s="22">
+        <v>130.48099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21">
+        <v>21.51</v>
+      </c>
+      <c r="E23" s="21">
+        <v>21.949000000000002</v>
+      </c>
+      <c r="F23" s="21">
+        <v>22.056999999999999</v>
+      </c>
+      <c r="G23" s="21">
+        <v>21.684000000000001</v>
+      </c>
+      <c r="H23" s="21">
+        <v>22.61</v>
+      </c>
+      <c r="I23" s="21">
+        <v>23.295000000000002</v>
+      </c>
+      <c r="J23" s="21">
+        <v>23.754000000000001</v>
+      </c>
+      <c r="K23" s="21">
+        <v>23.638999999999999</v>
+      </c>
+      <c r="L23" s="21">
+        <v>25.004999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{396D77C1-EB78-497B-8B32-14F74210F007}"/>
+    <hyperlink ref="A4" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1A10CAF0-E854-4CA9-9EF6-F0AA32C96CC7}"/>
+    <hyperlink ref="A5" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1519AFB4-07A6-45AA-877D-2CFAB7E90224}"/>
+    <hyperlink ref="A6" r:id="rId4" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E60D584D-123D-40E1-BC4D-7E8037FEBAAA}"/>
+    <hyperlink ref="A7" r:id="rId5" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{E024A799-96F0-4F2E-A8C9-341BCC63F368}"/>
+    <hyperlink ref="A8" r:id="rId6" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{ADE366D5-F435-4EDA-8E44-CDA8CA54175D}"/>
+    <hyperlink ref="A9" r:id="rId7" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0A16A5FF-C83E-4CB0-8458-BF5D9179E0EC}"/>
+    <hyperlink ref="A10" r:id="rId8" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A639B199-FBE2-4FAF-A326-BADAF5482105}"/>
+    <hyperlink ref="A11" r:id="rId9" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{FE3A2670-6D7C-4630-BBBD-40DA8BEED6D6}"/>
+    <hyperlink ref="A12" r:id="rId10" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1FAA5449-7AD0-4D5F-99E7-91E7B3DF2783}"/>
+    <hyperlink ref="A13" r:id="rId11" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6AB215E3-3BA7-43F8-9C37-60FB183527CE}"/>
+    <hyperlink ref="A14" r:id="rId12" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6A9986A2-F074-4854-9E3F-F5B6B4D39257}"/>
+    <hyperlink ref="A15" r:id="rId13" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{2F22FF17-AA88-4ADD-9C47-CE345D58A9B8}"/>
+    <hyperlink ref="A16" r:id="rId14" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1ADE1D10-0362-44C5-B21A-B9CED1CC9240}"/>
+    <hyperlink ref="A17" r:id="rId15" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{79DC46CB-5845-4BA2-8C35-1F0351ABCFCE}"/>
+    <hyperlink ref="A18" r:id="rId16" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8282E662-72C9-4C8B-BCAF-EB755EAC3F89}"/>
+    <hyperlink ref="A19" r:id="rId17" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7236A354-68B3-4AAC-BB80-E1F69D6800C1}"/>
+    <hyperlink ref="A20" r:id="rId18" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B4E57436-CAEC-45B5-9F6F-DBA9EC62A423}"/>
+    <hyperlink ref="A21" r:id="rId19" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4880F784-9C70-4CFD-ACA0-EB91BA96CA52}"/>
+    <hyperlink ref="A22" r:id="rId20" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{066710C4-0127-458C-A98B-D823F55EDAF7}"/>
+    <hyperlink ref="A23" r:id="rId21" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4EC0FB7E-C777-47EA-A5DD-755E1AAD31BA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A1F5AA-BC7F-4830-AD4A-BD21F77A6299}">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21">
+        <v>245.512</v>
+      </c>
+      <c r="C3" s="21">
+        <v>247.518</v>
+      </c>
+      <c r="D3" s="21">
+        <v>253.893</v>
+      </c>
+      <c r="E3" s="21">
+        <v>257.654</v>
+      </c>
+      <c r="F3" s="21">
+        <v>268.40499999999997</v>
+      </c>
+      <c r="G3" s="21">
+        <v>279.16899999999998</v>
+      </c>
+      <c r="H3" s="21">
+        <v>284.36799999999999</v>
+      </c>
+      <c r="I3" s="21">
+        <v>285.73899999999998</v>
+      </c>
+      <c r="J3" s="21">
+        <v>302.815</v>
+      </c>
+      <c r="K3" s="21">
+        <v>305.02499999999998</v>
+      </c>
+      <c r="L3" s="21">
+        <v>319.78800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22">
+        <v>91.596999999999994</v>
+      </c>
+      <c r="C4" s="22">
+        <v>101.646</v>
+      </c>
+      <c r="D4" s="22">
+        <v>113.149</v>
+      </c>
+      <c r="E4" s="22">
+        <v>117.932</v>
+      </c>
+      <c r="F4" s="22">
+        <v>121.809</v>
+      </c>
+      <c r="G4" s="22">
+        <v>129.982</v>
+      </c>
+      <c r="H4" s="22">
+        <v>135.92599999999999</v>
+      </c>
+      <c r="I4" s="22">
+        <v>152.441</v>
+      </c>
+      <c r="J4" s="22">
+        <v>157.45500000000001</v>
+      </c>
+      <c r="K4" s="22">
+        <v>164.48699999999999</v>
+      </c>
+      <c r="L4" s="22">
+        <v>167.37700000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21">
+        <v>112.96</v>
+      </c>
+      <c r="C5" s="21">
+        <v>134.226</v>
+      </c>
+      <c r="D5" s="21">
+        <v>118.95</v>
+      </c>
+      <c r="E5" s="21">
+        <v>123.627</v>
+      </c>
+      <c r="F5" s="21">
+        <v>120.29900000000001</v>
+      </c>
+      <c r="G5" s="21">
+        <v>128.107</v>
+      </c>
+      <c r="H5" s="21">
+        <v>131.75200000000001</v>
+      </c>
+      <c r="I5" s="21">
+        <v>135.86600000000001</v>
+      </c>
+      <c r="J5" s="21">
+        <v>142.58099999999999</v>
+      </c>
+      <c r="K5" s="21">
+        <v>156.40600000000001</v>
+      </c>
+      <c r="L5" s="21">
+        <v>161.06100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="22">
+        <v>166.745</v>
+      </c>
+      <c r="C6" s="22">
+        <v>173.77500000000001</v>
+      </c>
+      <c r="D6" s="22">
+        <v>189.03800000000001</v>
+      </c>
+      <c r="E6" s="22">
+        <v>198.47499999999999</v>
+      </c>
+      <c r="F6" s="22">
+        <v>203.99600000000001</v>
+      </c>
+      <c r="G6" s="22">
+        <v>199.374</v>
+      </c>
+      <c r="H6" s="22">
+        <v>199.57599999999999</v>
+      </c>
+      <c r="I6" s="22">
+        <v>205.24299999999999</v>
+      </c>
+      <c r="J6" s="22">
+        <v>215.16499999999999</v>
+      </c>
+      <c r="K6" s="22">
+        <v>227.898</v>
+      </c>
+      <c r="L6" s="22">
+        <v>235.51499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="21">
+        <v>106.813</v>
+      </c>
+      <c r="C7" s="21">
+        <v>99.9</v>
+      </c>
+      <c r="D7" s="21">
+        <v>103.114</v>
+      </c>
+      <c r="E7" s="21">
+        <v>110.84399999999999</v>
+      </c>
+      <c r="F7" s="21">
+        <v>119.953</v>
+      </c>
+      <c r="G7" s="21">
+        <v>142.232</v>
+      </c>
+      <c r="H7" s="21">
+        <v>152.048</v>
+      </c>
+      <c r="I7" s="21">
+        <v>167.386</v>
+      </c>
+      <c r="J7" s="21">
+        <v>177.47800000000001</v>
+      </c>
+      <c r="K7" s="21">
+        <v>211.84200000000001</v>
+      </c>
+      <c r="L7" s="21">
+        <v>228.04300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="22">
+        <v>176.304</v>
+      </c>
+      <c r="C8" s="22">
+        <v>179.31299999999999</v>
+      </c>
+      <c r="D8" s="22">
+        <v>187.95699999999999</v>
+      </c>
+      <c r="E8" s="22">
+        <v>198.47800000000001</v>
+      </c>
+      <c r="F8" s="22">
+        <v>202.14500000000001</v>
+      </c>
+      <c r="G8" s="22">
+        <v>213.101</v>
+      </c>
+      <c r="H8" s="22">
+        <v>213.654</v>
+      </c>
+      <c r="I8" s="22">
+        <v>218.17400000000001</v>
+      </c>
+      <c r="J8" s="22">
+        <v>207.154</v>
+      </c>
+      <c r="K8" s="22">
+        <v>213.68100000000001</v>
+      </c>
+      <c r="L8" s="22">
+        <v>205.86699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="21">
+        <v>172.614</v>
+      </c>
+      <c r="C9" s="21">
+        <v>175.01300000000001</v>
+      </c>
+      <c r="D9" s="21">
+        <v>183.54499999999999</v>
+      </c>
+      <c r="E9" s="21">
+        <v>189.05</v>
+      </c>
+      <c r="F9" s="21">
+        <v>194.22300000000001</v>
+      </c>
+      <c r="G9" s="21">
+        <v>202.68199999999999</v>
+      </c>
+      <c r="H9" s="21">
+        <v>200.57300000000001</v>
+      </c>
+      <c r="I9" s="21">
+        <v>202.679</v>
+      </c>
+      <c r="J9" s="21">
+        <v>216.03700000000001</v>
+      </c>
+      <c r="K9" s="21">
+        <v>219.90199999999999</v>
+      </c>
+      <c r="L9" s="21">
+        <v>223.518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="22">
+        <v>303.47399999999999</v>
+      </c>
+      <c r="C10" s="22">
+        <v>311.16699999999997</v>
+      </c>
+      <c r="D10" s="22">
+        <v>330.43900000000002</v>
+      </c>
+      <c r="E10" s="22">
+        <v>343.565</v>
+      </c>
+      <c r="F10" s="22">
+        <v>357.47399999999999</v>
+      </c>
+      <c r="G10" s="22">
+        <v>371.12799999999999</v>
+      </c>
+      <c r="H10" s="22">
+        <v>378.52300000000002</v>
+      </c>
+      <c r="I10" s="22">
+        <v>382.58199999999999</v>
+      </c>
+      <c r="J10" s="22">
+        <v>400.28399999999999</v>
+      </c>
+      <c r="K10" s="22">
+        <v>410.392</v>
+      </c>
+      <c r="L10" s="22">
+        <v>419.23899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="21">
+        <v>260.20100000000002</v>
+      </c>
+      <c r="C11" s="21">
+        <v>242.59899999999999</v>
+      </c>
+      <c r="D11" s="21">
+        <v>202.01400000000001</v>
+      </c>
+      <c r="E11" s="21">
+        <v>182.929</v>
+      </c>
+      <c r="F11" s="21">
+        <v>126.997</v>
+      </c>
+      <c r="G11" s="21">
+        <v>116.456</v>
+      </c>
+      <c r="H11" s="21">
+        <v>115.649</v>
+      </c>
+      <c r="I11" s="21">
+        <v>102.93</v>
+      </c>
+      <c r="J11" s="21">
+        <v>101.389</v>
+      </c>
+      <c r="K11" s="21">
+        <v>109.277</v>
+      </c>
+      <c r="L11" s="21">
+        <v>109.193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="22">
+        <v>55.457999999999998</v>
+      </c>
+      <c r="C12" s="22">
+        <v>54.872</v>
+      </c>
+      <c r="D12" s="22">
+        <v>56.808999999999997</v>
+      </c>
+      <c r="E12" s="22">
+        <v>61.168999999999997</v>
+      </c>
+      <c r="F12" s="22">
+        <v>63.994</v>
+      </c>
+      <c r="G12" s="22">
+        <v>68.180999999999997</v>
+      </c>
+      <c r="H12" s="22">
+        <v>71.97</v>
+      </c>
+      <c r="I12" s="22">
+        <v>70.09</v>
+      </c>
+      <c r="J12" s="22">
+        <v>80.352000000000004</v>
+      </c>
+      <c r="K12" s="22">
+        <v>83.382999999999996</v>
+      </c>
+      <c r="L12" s="22">
+        <v>83.078999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21">
+        <v>217.15</v>
+      </c>
+      <c r="C13" s="21">
+        <v>206.54900000000001</v>
+      </c>
+      <c r="D13" s="21">
+        <v>203.80500000000001</v>
+      </c>
+      <c r="E13" s="21">
+        <v>208.761</v>
+      </c>
+      <c r="F13" s="21">
+        <v>217.52</v>
+      </c>
+      <c r="G13" s="21">
+        <v>231.012</v>
+      </c>
+      <c r="H13" s="21">
+        <v>245.738</v>
+      </c>
+      <c r="I13" s="21">
+        <v>253.233</v>
+      </c>
+      <c r="J13" s="21">
+        <v>265.50799999999998</v>
+      </c>
+      <c r="K13" s="21">
+        <v>281.25400000000002</v>
+      </c>
+      <c r="L13" s="21">
+        <v>296.82299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="22">
+        <v>84.573999999999998</v>
+      </c>
+      <c r="C14" s="22">
+        <v>76.873000000000005</v>
+      </c>
+      <c r="D14" s="22">
+        <v>71.622</v>
+      </c>
+      <c r="E14" s="22">
+        <v>84.754000000000005</v>
+      </c>
+      <c r="F14" s="22">
+        <v>90.85</v>
+      </c>
+      <c r="G14" s="22">
+        <v>119.54300000000001</v>
+      </c>
+      <c r="H14" s="22">
+        <v>124.633</v>
+      </c>
+      <c r="I14" s="22">
+        <v>143.482</v>
+      </c>
+      <c r="J14" s="22">
+        <v>166.346</v>
+      </c>
+      <c r="K14" s="22">
+        <v>192.83799999999999</v>
+      </c>
+      <c r="L14" s="22">
+        <v>218.91200000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="21">
+        <v>50.268000000000001</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45.463000000000001</v>
+      </c>
+      <c r="D15" s="21">
+        <v>31.341999999999999</v>
+      </c>
+      <c r="E15" s="21">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="F15" s="21">
+        <v>40.082000000000001</v>
+      </c>
+      <c r="G15" s="21">
+        <v>44.433999999999997</v>
+      </c>
+      <c r="H15" s="21">
+        <v>63.290999999999997</v>
+      </c>
+      <c r="I15" s="21">
+        <v>65.037999999999997</v>
+      </c>
+      <c r="J15" s="21">
+        <v>88.125</v>
+      </c>
+      <c r="K15" s="21">
+        <v>102.718</v>
+      </c>
+      <c r="L15" s="21">
+        <v>112.53400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="22">
+        <v>245.86199999999999</v>
+      </c>
+      <c r="C16" s="22">
+        <v>245.89099999999999</v>
+      </c>
+      <c r="D16" s="22">
+        <v>276.29500000000002</v>
+      </c>
+      <c r="E16" s="22">
+        <v>268.67700000000002</v>
+      </c>
+      <c r="F16" s="22">
+        <v>271.38400000000001</v>
+      </c>
+      <c r="G16" s="22">
+        <v>270.45999999999998</v>
+      </c>
+      <c r="H16" s="22">
+        <v>264.01</v>
+      </c>
+      <c r="I16" s="22">
+        <v>265.22899999999998</v>
+      </c>
+      <c r="J16" s="22">
+        <v>276.64999999999998</v>
+      </c>
+      <c r="K16" s="22">
+        <v>285.73399999999998</v>
+      </c>
+      <c r="L16" s="22">
+        <v>292.28800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="21">
+        <v>159.56100000000001</v>
+      </c>
+      <c r="C17" s="21">
+        <v>161.66200000000001</v>
+      </c>
+      <c r="D17" s="21">
+        <v>163.197</v>
+      </c>
+      <c r="E17" s="21">
+        <v>173.02600000000001</v>
+      </c>
+      <c r="F17" s="21">
+        <v>181.24199999999999</v>
+      </c>
+      <c r="G17" s="21">
+        <v>173.143</v>
+      </c>
+      <c r="H17" s="21">
+        <v>174.672</v>
+      </c>
+      <c r="I17" s="21">
+        <v>165.92500000000001</v>
+      </c>
+      <c r="J17" s="21">
+        <v>175.614</v>
+      </c>
+      <c r="K17" s="21">
+        <v>184.37799999999999</v>
+      </c>
+      <c r="L17" s="21">
+        <v>187.51900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="22">
+        <v>244.19800000000001</v>
+      </c>
+      <c r="C18" s="22">
+        <v>244.48099999999999</v>
+      </c>
+      <c r="D18" s="22">
+        <v>250.95500000000001</v>
+      </c>
+      <c r="E18" s="22">
+        <v>257.70600000000002</v>
+      </c>
+      <c r="F18" s="22">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="G18" s="22">
+        <v>283.40899999999999</v>
+      </c>
+      <c r="H18" s="22">
+        <v>295.99900000000002</v>
+      </c>
+      <c r="I18" s="22">
+        <v>288.7</v>
+      </c>
+      <c r="J18" s="22">
+        <v>299.00299999999999</v>
+      </c>
+      <c r="K18" s="22">
+        <v>308.14499999999998</v>
+      </c>
+      <c r="L18" s="22">
+        <v>309.52800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="21">
+        <v>75.757999999999996</v>
+      </c>
+      <c r="C19" s="21">
+        <v>74.921000000000006</v>
+      </c>
+      <c r="D19" s="21">
+        <v>79.381</v>
+      </c>
+      <c r="E19" s="21">
+        <v>85.756</v>
+      </c>
+      <c r="F19" s="21">
+        <v>86.960999999999999</v>
+      </c>
+      <c r="G19" s="21">
+        <v>87.28</v>
+      </c>
+      <c r="H19" s="21">
+        <v>87.814999999999998</v>
+      </c>
+      <c r="I19" s="21">
+        <v>88.619</v>
+      </c>
+      <c r="J19" s="21">
+        <v>94.207999999999998</v>
+      </c>
+      <c r="K19" s="21">
+        <v>103.901</v>
+      </c>
+      <c r="L19" s="21">
+        <v>69.662999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="22">
+        <v>71.462000000000003</v>
+      </c>
+      <c r="C20" s="22">
+        <v>77.557000000000002</v>
+      </c>
+      <c r="D20" s="22">
+        <v>88.046000000000006</v>
+      </c>
+      <c r="E20" s="22">
+        <v>89.073999999999998</v>
+      </c>
+      <c r="F20" s="22">
+        <v>95.218999999999994</v>
+      </c>
+      <c r="G20" s="22">
+        <v>99.715999999999994</v>
+      </c>
+      <c r="H20" s="22">
+        <v>89.281999999999996</v>
+      </c>
+      <c r="I20" s="22">
+        <v>99.841999999999999</v>
+      </c>
+      <c r="J20" s="22">
+        <v>91.049000000000007</v>
+      </c>
+      <c r="K20" s="22">
+        <v>94.807000000000002</v>
+      </c>
+      <c r="L20" s="22">
+        <v>101.05200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="21">
+        <v>131.80500000000001</v>
+      </c>
+      <c r="C21" s="21">
+        <v>126.69199999999999</v>
+      </c>
+      <c r="D21" s="21">
+        <v>126.33199999999999</v>
+      </c>
+      <c r="E21" s="21">
+        <v>125.727</v>
+      </c>
+      <c r="F21" s="21">
+        <v>124.697</v>
+      </c>
+      <c r="G21" s="21">
+        <v>123.089</v>
+      </c>
+      <c r="H21" s="21">
+        <v>121.709</v>
+      </c>
+      <c r="I21" s="21">
+        <v>147.47399999999999</v>
+      </c>
+      <c r="J21" s="21">
+        <v>129.654</v>
+      </c>
+      <c r="K21" s="21">
+        <v>135.21299999999999</v>
+      </c>
+      <c r="L21" s="21">
+        <v>149.94200000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="22">
+        <v>147.053</v>
+      </c>
+      <c r="C22" s="22">
+        <v>144.166</v>
+      </c>
+      <c r="D22" s="22">
+        <v>146.70699999999999</v>
+      </c>
+      <c r="E22" s="22">
+        <v>137.173</v>
+      </c>
+      <c r="F22" s="22">
+        <v>135.30099999999999</v>
+      </c>
+      <c r="G22" s="22">
+        <v>122.929</v>
+      </c>
+      <c r="H22" s="22">
+        <v>129.751</v>
+      </c>
+      <c r="I22" s="22">
+        <v>124.911</v>
+      </c>
+      <c r="J22" s="22">
+        <v>118.66500000000001</v>
+      </c>
+      <c r="K22" s="22">
+        <v>115.76900000000001</v>
+      </c>
+      <c r="L22" s="22">
+        <v>116.479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="21">
+        <v>267.93700000000001</v>
+      </c>
+      <c r="C23" s="21">
+        <v>277.93299999999999</v>
+      </c>
+      <c r="D23" s="21">
+        <v>266.17399999999998</v>
+      </c>
+      <c r="E23" s="21">
+        <v>270.84399999999999</v>
+      </c>
+      <c r="F23" s="21">
+        <v>276.20699999999999</v>
+      </c>
+      <c r="G23" s="21">
+        <v>276.96600000000001</v>
+      </c>
+      <c r="H23" s="21">
+        <v>279.59399999999999</v>
+      </c>
+      <c r="I23" s="21">
+        <v>284.63799999999998</v>
+      </c>
+      <c r="J23" s="21">
+        <v>290.06</v>
+      </c>
+      <c r="K23" s="21">
+        <v>303.84800000000001</v>
+      </c>
+      <c r="L23" s="21">
+        <v>302.34800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22">
+        <v>327.05099999999999</v>
+      </c>
+      <c r="E24" s="22">
+        <v>334.8</v>
+      </c>
+      <c r="F24" s="22">
+        <v>349.01499999999999</v>
+      </c>
+      <c r="G24" s="22">
+        <v>364.38099999999997</v>
+      </c>
+      <c r="H24" s="22">
+        <v>374.815</v>
+      </c>
+      <c r="I24" s="22">
+        <v>372.08199999999999</v>
+      </c>
+      <c r="J24" s="22">
+        <v>374.03500000000003</v>
+      </c>
+      <c r="K24" s="22">
+        <v>395.17899999999997</v>
+      </c>
+      <c r="L24" s="22">
+        <v>401.536</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{26E1D81C-9B17-4370-BDC2-7F1CBC171C76}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{1F52FFD3-B395-42E3-AC38-43AA9BDA4388}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0152327F-435B-44C1-B5A2-55872839F484}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{4A791118-42CC-4FA2-9848-E9D62C95506C}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{B6B859BA-621D-48CA-9359-30A3D7E07A50}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=%5bLOCATION%5d.%5bEST%5d&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{165B3136-A4A9-44D0-91A5-0A80857D853B}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0E33C9C1-7B94-4E01-9F5C-6AD08A4A2FBA}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0A4A93F7-DF7E-4313-85DC-1ADE9AE59370}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{54388A15-969B-4D16-9F6F-98ED653583E5}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[GRC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{614A6481-177B-4271-A1D7-DE0401BCE2CE}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0AD0F6BA-9F4C-448E-85E0-102AC576D7B2}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ISL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A24B292C-B341-4CC5-8355-991616CB1B14}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LTU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{F24FC073-F5D4-4A02-8716-0437EDEDFC40}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8A8E1467-C056-4715-9FEF-6CCD84D0B06B}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[LUX]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{29D43D45-EF17-4129-8328-F228D2B7747D}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{46BF1398-0BDC-4FAE-B737-AF5A9206DB40}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{D6674685-0EDE-495E-987D-916B09CFC74A}"/>
+    <hyperlink ref="A19" r:id="rId18" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[POL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{6AF10FB5-E8F4-4206-96CA-C89868514960}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVK]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{8AB2687E-C20E-4D99-8088-80FE6541F7A6}"/>
+    <hyperlink ref="A21" r:id="rId20" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SVN]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{22282C31-881E-44BC-BDFB-8002271F9C52}"/>
+    <hyperlink ref="A22" r:id="rId21" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{CBB0AD0F-814B-467A-98F8-7CA044F7AB5F}"/>
+    <hyperlink ref="A23" r:id="rId22" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[SWE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EDF89BAD-866C-49CE-82E5-BA6A3D16A568}"/>
+    <hyperlink ref="A24" r:id="rId23" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=SHA&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EFBB0A75-7042-4461-85BD-A31A32CC595F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId24"/>
+</worksheet>
 </file>